--- a/biology/Zoologie/Denzaburō_Miyaji/Denzaburō_Miyaji.xlsx
+++ b/biology/Zoologie/Denzaburō_Miyaji/Denzaburō_Miyaji.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Denzabur%C5%8D_Miyaji</t>
+          <t>Denzaburō_Miyaji</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Denzaburō Miyaji (宮地伝三郎, Miyaji Denzaburō?) est un zoologiste japonais, né le 26 janvier 1901, à Innoshima (préfecture de Hiroshima), et mort le 21 octobre 1988. Formé à l'université impériale de Tōkyō, il a mené des recherches portant sur l'écologie animale, au sein de l'université impériale de Kyōto.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Denzabur%C5%8D_Miyaji</t>
+          <t>Denzaburō_Miyaji</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Formation
-Denzaburō Miyaji naît le 26 janvier 1901, à Innoshima, dans la préfecture de Hiroshima. L'année 1925, il obtient un diplôme en zoologie, à l'université impériale de Tōkyō. En 1942, il devient professeur au sein de la faculté des sciences de l'université impériale de Kyōto[1],[2].
-Travaux de recherche
-Durant les années 1950, les recherches de Denzaburō Miyaji portent sur le comportement social de l'ayu (Plecoglossus altivelis) et la production d'algues. Par la suite, le zoologiste étudie le Macaque japonais (Macaca fuscata) et participe au développement d'un institut de recherche rattaché à l'université de Kyoto et spécialisé en primatologie[3], une discipline introduite au Japon en 1948 par l'écologue et anthropologue japonais Kinji Imanishi[1],[4].
-Fin de carrière
-Denzaburō Miyaji prend sa retraite en 1964. La même année, il est promu directeur du Japan Monkey Centre (ja), ouvert à Inuyama (préfecture d'Aichi)[3] depuis octobre 1956[1],[4]. Douze ans plus tard, Denzaburō Miyaji quitte la direction de ce musée zoologique comprenant un zoo[1].
-Membre du Conseil scientifique du Japon (en) (l'Académie japonaise des sciences[5]), ancien président de la société écologique du Japon[6] et ancien directeur de la société japonaise pour la conservation de la nature, il meurt le 21 octobre 1988[1].
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denzaburō Miyaji naît le 26 janvier 1901, à Innoshima, dans la préfecture de Hiroshima. L'année 1925, il obtient un diplôme en zoologie, à l'université impériale de Tōkyō. En 1942, il devient professeur au sein de la faculté des sciences de l'université impériale de Kyōto,.
 </t>
         </is>
       </c>
@@ -530,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Denzabur%C5%8D_Miyaji</t>
+          <t>Denzaburō_Miyaji</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,16 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Yanosuke Saika (1888-1957), 1957[7].
-アユの話 (Ayu no hanashi?, « Le langage des ayu »), Iwanami Shoten, 1960[8],[1].
-サルの話 (Saru no hanashi?, « Le langage des singes »), Iwanami Shoten, 1966[9],[1].
-Social Life of Japanese Monkeys, Science, 1964[10].
-La vie sociale des Macaques du Japon, La Terre et la Vie - Revue d'écologie, 1964[11].</t>
+          <t>Travaux de recherche</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant les années 1950, les recherches de Denzaburō Miyaji portent sur le comportement social de l'ayu (Plecoglossus altivelis) et la production d'algues. Par la suite, le zoologiste étudie le Macaque japonais (Macaca fuscata) et participe au développement d'un institut de recherche rattaché à l'université de Kyoto et spécialisé en primatologie, une discipline introduite au Japon en 1948 par l'écologue et anthropologue japonais Kinji Imanishi,.
+</t>
         </is>
       </c>
     </row>
@@ -564,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Denzabur%C5%8D_Miyaji</t>
+          <t>Denzaburō_Miyaji</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +594,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fin de carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denzaburō Miyaji prend sa retraite en 1964. La même année, il est promu directeur du Japan Monkey Centre (ja), ouvert à Inuyama (préfecture d'Aichi) depuis octobre 1956,. Douze ans plus tard, Denzaburō Miyaji quitte la direction de ce musée zoologique comprenant un zoo.
+Membre du Conseil scientifique du Japon (en) (l'Académie japonaise des sciences), ancien président de la société écologique du Japon et ancien directeur de la société japonaise pour la conservation de la nature, il meurt le 21 octobre 1988.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Denzaburō_Miyaji</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denzabur%C5%8D_Miyaji</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Yanosuke Saika (1888-1957), 1957.
+アユの話 (Ayu no hanashi?, « Le langage des ayu »), Iwanami Shoten, 1960,.
+サルの話 (Saru no hanashi?, « Le langage des singes »), Iwanami Shoten, 1966,.
+Social Life of Japanese Monkeys, Science, 1964.
+La vie sociale des Macaques du Japon, La Terre et la Vie - Revue d'écologie, 1964.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Denzaburō_Miyaji</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denzabur%C5%8D_Miyaji</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les travaux de recherches scientifiques de Denzaburō Miyaji sur le langage des ayu sont couronnés par le prix Mainichi de la culture en 1960[1]. En 1968, pour l'ensemble de son œuvre scientifique, le gouvernement japonais lui décerne la médaille au ruban pourpre. Trois plus tard, il est récipiendaire de la deuxième classe de l'Ordre du Trésor sacré[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux de recherches scientifiques de Denzaburō Miyaji sur le langage des ayu sont couronnés par le prix Mainichi de la culture en 1960. En 1968, pour l'ensemble de son œuvre scientifique, le gouvernement japonais lui décerne la médaille au ruban pourpre. Trois plus tard, il est récipiendaire de la deuxième classe de l'Ordre du Trésor sacré.
 </t>
         </is>
       </c>
